--- a/TrackmanData/TestCenterReports.xlsx
+++ b/TrackmanData/TestCenterReports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehn/IdeaProjects/GCQuadCombineTest/TrackmanData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E400F34-4477-D849-BE89-C11BF36D0653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F795922B-1BB1-8F4F-82AE-C2CCF5793D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <sheet name="TestCenterReport01" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'From Pin absolute penalty point'!$O$2:$O$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'From Pin absolute penalty point'!$P$2:$P$6</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'From Pin absolute penalty point'!$AG$3:$AG$7</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'From Pin absolute penalty point'!$AH$3:$AH$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>Change Data</t>
   </si>
@@ -185,13 +185,7 @@
     <t>Delta y</t>
   </si>
   <si>
-    <t>Steigung m</t>
-  </si>
-  <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>Für Berechnung m*x + t</t>
   </si>
   <si>
     <t>From pin absolute sqrt(a^2+b^2)
@@ -200,6 +194,104 @@
   <si>
     <t>Penalty Points
 X</t>
+  </si>
+  <si>
+    <t>Für Berechnung n*x + u</t>
+  </si>
+  <si>
+    <t>Steigung n</t>
+  </si>
+  <si>
+    <t>verändertes u</t>
+  </si>
+  <si>
+    <t>verändertes n</t>
+  </si>
+  <si>
+    <t>Delta m</t>
+  </si>
+  <si>
+    <t>Berechnung der Geraden mit unterschiedlichen m- und t-Werten zu den einzenen Target Distanzen</t>
+  </si>
+  <si>
+    <t>Berechnung der Geraden die die Steigung m für eine alle Target Distanzen festlegt</t>
+  </si>
+  <si>
+    <t>mit m errechnetes t</t>
+  </si>
+  <si>
+    <t>t manuell angepasst, so dass es für den gezeichneten Graphen passt</t>
+  </si>
+  <si>
+    <t>Steigung m aus 2 Punkten des Graphen errechnet</t>
+  </si>
+  <si>
+    <t>Für Berechnung m*x + t herangezogene Punkte</t>
+  </si>
+  <si>
+    <t>m errechnet aus
+ n*Target+u</t>
+  </si>
+  <si>
+    <t>ein paar typische Target Werte (x)</t>
+  </si>
+  <si>
+    <t>n*x+u für diese typischen Target Werte errechnet</t>
+  </si>
+  <si>
+    <t>m-Wert zu Target</t>
+  </si>
+  <si>
+    <t>Berechnung der Geraden die die Konstante t für eine alle Target Distanzen festlegt</t>
+  </si>
+  <si>
+    <t>t-Wert zu Target</t>
+  </si>
+  <si>
+    <t>Target Distance</t>
+  </si>
+  <si>
+    <t>1,45% der Target Distance (innerhalb dieser Distanz etwa gibt es 0 Penalty Points laut Internet)</t>
+  </si>
+  <si>
+    <t>Für Berechnung o*x + v</t>
+  </si>
+  <si>
+    <t>Steigung o</t>
+  </si>
+  <si>
+    <t>aus Graph abgelesenes v</t>
+  </si>
+  <si>
+    <t>aus Graph abgelesenes u</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> errechnet aus
+o*Target+v</t>
+  </si>
+  <si>
+    <t>Delta t</t>
+  </si>
+  <si>
+    <t>Target Distance X</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Penalty Points errechnet</t>
+  </si>
+  <si>
+    <t>Penalty Points Trackman</t>
+  </si>
+  <si>
+    <t>Penalty Points errechnet gerundet</t>
+  </si>
+  <si>
+    <t>Delta Penalty Points</t>
+  </si>
+  <si>
+    <t>Markierung für Abweichung Betrag &gt; 1</t>
   </si>
 </sst>
 </file>
@@ -349,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +693,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -796,7 +918,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -819,18 +941,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -891,6 +1001,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1068,7 +1209,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$2:$B$7</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1095,7 +1236,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$D$2:$D$7</c:f>
+              <c:f>'From Pin absolute penalty point'!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1170,7 +1311,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$2:$B$7</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1197,27 +1338,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$F$2:$F$7</c:f>
+              <c:f>'From Pin absolute penalty point'!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,6 +1590,380 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>68m</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:backward val="30"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute'!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute'!$C$13:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7018512172212619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2806248474865698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1773197148410786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4035668847618257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7262676501632095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.303772242470445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C90-E545-BD14-EF3D80267499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1818926431"/>
+        <c:axId val="1819206591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1818926431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819206591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1819206591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818926431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>50m</a:t>
             </a:r>
           </a:p>
@@ -1772,7 +2287,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2132,7 +2647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2727,7 +3242,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$8:$B$12</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2751,7 +3266,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$D$8:$D$12</c:f>
+              <c:f>'From Pin absolute penalty point'!$D$9:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2823,7 +3338,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$8:$B$12</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2847,7 +3362,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$F$8:$F$12</c:f>
+              <c:f>'From Pin absolute penalty point'!$F$9:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3193,7 +3708,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$13:$B$18</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3220,7 +3735,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$D$13:$D$18</c:f>
+              <c:f>'From Pin absolute penalty point'!$D$14:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3295,7 +3810,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$13:$B$18</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3322,7 +3837,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$F$13:$F$18</c:f>
+              <c:f>'From Pin absolute penalty point'!$F$14:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3657,7 +4172,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$19:$B$24</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$20:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3684,7 +4199,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$D$19:$D$24</c:f>
+              <c:f>'From Pin absolute penalty point'!$D$20:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3759,7 +4274,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$19:$B$24</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$20:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3786,7 +4301,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$F$19:$F$24</c:f>
+              <c:f>'From Pin absolute penalty point'!$F$20:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4121,7 +4636,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$25:$B$30</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$26:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4148,7 +4663,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$D$25:$D$30</c:f>
+              <c:f>'From Pin absolute penalty point'!$D$26:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4223,7 +4738,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$B$25:$B$30</c:f>
+              <c:f>'From Pin absolute penalty point'!$B$26:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4250,7 +4765,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$F$25:$F$30</c:f>
+              <c:f>'From Pin absolute penalty point'!$F$26:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4502,7 +5017,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Steigung zu Target</a:t>
+              <a:t>Graph zu Target für Bestimmung m für eine Target Distanz x</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4578,13 +5093,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:forward val="1"/>
             <c:backward val="29"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$O$2:$O$6</c:f>
+              <c:f>'From Pin absolute penalty point'!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4608,7 +5124,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$P$2:$P$6</c:f>
+              <c:f>'From Pin absolute penalty point'!$P$3:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4634,6 +5150,232 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2000-4746-8BF9-E8663191E966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="29"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$U$3:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F691-7B4E-998A-1E1C882265F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="10"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$X$3:$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$Y$3:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.8037037037037035E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5074074074074066E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1004074074074074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1021111111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11062962962962962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11574074074074073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11914814814814814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13618518518518519</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1532222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16685185185185183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17025925925925925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F691-7B4E-998A-1E1C882265F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4856,6 +5598,588 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Graph zur Bestimmung von t für eine Target Distanz x</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="29"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$AG$3:$AG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$AH$3:$AH$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0D4-5146-ABA1-E6111306BC8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="29"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$AG$3:$AG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$AM$3:$AM$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E0D4-5146-ABA1-E6111306BC8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$AP$3:$AP$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$AQ$3:$AQ$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E0D4-5146-ABA1-E6111306BC8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="749142639"/>
+        <c:axId val="1618572431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="749142639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618572431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1618572431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749142639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>38m</a:t>
             </a:r>
           </a:p>
@@ -5180,7 +6504,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5534,380 +6858,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>68m</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
-            <c:backward val="30"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'From Pin absolute'!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'From Pin absolute'!$C$13:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.7018512172212619</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2806248474865698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1773197148410786</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4035668847618257</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7262676501632095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.303772242470445</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C90-E545-BD14-EF3D80267499}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1818926431"/>
-        <c:axId val="1819206591"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1818926431"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1819206591"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1819206591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="11"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818926431"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6029,6 +6979,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8452,7 +9442,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8968,7 +9958,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9484,7 +10474,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10000,7 +10990,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10516,7 +11506,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11032,7 +12022,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11548,7 +12538,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12064,7 +13054,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12580,19 +13570,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>313266</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>99158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>309359</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12624,13 +14130,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>97693</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>44938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276796</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12660,15 +14166,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>424961</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>93784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12698,15 +14204,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>115601</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>61221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12738,13 +14244,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504743</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>77503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>796192</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12774,16 +14280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>202431</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205946</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>454121</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>100060</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>747245</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12803,6 +14309,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>557198</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>215255</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>148738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A82A03-D775-204B-9727-6CF944C876ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13334,1031 +14876,2941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC5614-BCA1-4843-A31B-9FFACE729F12}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:BG31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P52" zoomScale="118" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="N1" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AG1" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+    </row>
+    <row r="2" spans="1:59" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AK2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AL2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
+      <c r="BB2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+    <row r="3" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>57</v>
       </c>
-      <c r="B2" s="22">
-        <f>100-A2</f>
+      <c r="B3" s="18">
+        <f>100-A3</f>
         <v>43</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C3" s="19">
         <v>38</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D3" s="20">
         <v>5.5326304774492217</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E3" s="21">
         <v>0.14559553888024268</v>
       </c>
-      <c r="F2" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="G2" s="24">
-        <f>C2*0.0145</f>
+      <c r="F3" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="20">
+        <f>C3*0.0145</f>
         <v>0.55100000000000005</v>
       </c>
-      <c r="L2" s="39">
-        <f>D2-($K$5*B2)</f>
+      <c r="L3" s="35">
+        <f>D3-($K$6*B3)</f>
         <v>0.52089292033051215</v>
       </c>
-      <c r="O2" s="3">
-        <f>C5</f>
+      <c r="O3" s="20">
+        <f>$C$6</f>
         <v>38</v>
       </c>
-      <c r="P2" s="3">
-        <f>K5</f>
+      <c r="P3" s="3">
+        <f>$K$6</f>
         <v>0.11655203621206302</v>
       </c>
+      <c r="U3" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>$T$10*X3+$U$9</f>
+        <v>6.8037037037037035E-2</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="19">
+        <f>$T$10*AB3+$U$9</f>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="AD3" s="19"/>
+      <c r="AG3" s="20">
+        <f>$C$6</f>
+        <v>38</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>$F$6</f>
+        <v>0.6</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="3">
+        <f>$AL$10*AP3+$AM$10</f>
+        <v>0.375</v>
+      </c>
+      <c r="AT3" s="19">
+        <v>38</v>
+      </c>
+      <c r="AU3" s="19">
+        <f>$AL$10*AT3+$AM$10</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AV3" s="19"/>
+      <c r="AY3" s="19">
+        <v>38</v>
+      </c>
+      <c r="AZ3" s="3">
+        <f>$T$10*AY3+$U$9</f>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="BA3" s="3">
+        <f>$AL$10*AY3+$AM$10</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="BB3" s="3">
+        <f>D3</f>
+        <v>5.5326304774492217</v>
+      </c>
+      <c r="BC3" s="3">
+        <f>(BB3-BA3)/AZ3</f>
+        <v>42.747527325161279</v>
+      </c>
+      <c r="BD3" s="45">
+        <f>ROUND(BC3,0)</f>
+        <v>43</v>
+      </c>
+      <c r="BE3" s="45">
+        <f>B3</f>
+        <v>43</v>
+      </c>
+      <c r="BF3" s="3">
+        <f>BE3-BD3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="4" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>74</v>
       </c>
-      <c r="B3" s="38">
-        <f t="shared" ref="B3:B30" si="0">100-A3</f>
+      <c r="B4" s="34">
+        <f t="shared" ref="B4:B31" si="0">100-A4</f>
         <v>26</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C4" s="19">
         <v>38</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D4" s="35">
         <v>3.5510561809129397</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E4" s="21">
         <v>9.3448846866129989E-2</v>
       </c>
-      <c r="F3" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="G3" s="24">
-        <f t="shared" ref="G3:G30" si="1">C3*0.0145</f>
+      <c r="F4" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:G31" si="1">C4*0.0145</f>
         <v>0.55100000000000005</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="39">
-        <f t="shared" ref="L3:L7" si="2">D3-($K$5*B3)</f>
+      <c r="L4" s="35">
+        <f t="shared" ref="L4:L8" si="2">D4-($K$6*B4)</f>
         <v>0.52070323939930141</v>
       </c>
-      <c r="O3" s="3">
-        <f>C10</f>
+      <c r="O4" s="11">
+        <f>$C$11</f>
         <v>29</v>
       </c>
-      <c r="P3" s="3">
-        <f>K10</f>
+      <c r="P4" s="3">
+        <f>$K$11</f>
         <v>0.10287527062255616</v>
       </c>
+      <c r="U4" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>$T$10*X4+$U$9</f>
+        <v>8.5074074074074066E-2</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="19">
+        <f t="shared" ref="AC4:AC31" si="3">$T$10*AB4+$U$9</f>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="AD4" s="19"/>
+      <c r="AG4" s="11">
+        <f>$C$11</f>
+        <v>29</v>
+      </c>
+      <c r="AH4" s="3">
+        <f>$F$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f t="shared" ref="AQ4:AQ16" si="4">$AL$10*AP4+$AM$10</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AT4" s="19">
+        <v>38</v>
+      </c>
+      <c r="AU4" s="19">
+        <f t="shared" ref="AU4:AU31" si="5">$AL$10*AT4+$AM$10</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AY4" s="19">
+        <v>38</v>
+      </c>
+      <c r="AZ4" s="3">
+        <f t="shared" ref="AZ4:AZ31" si="6">$T$10*AY4+$U$9</f>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="BA4" s="3">
+        <f t="shared" ref="BA4:BA31" si="7">$AL$10*AY4+$AM$10</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="BB4" s="3">
+        <f t="shared" ref="BB4:BB31" si="8">D4</f>
+        <v>3.5510561809129397</v>
+      </c>
+      <c r="BC4" s="3">
+        <f t="shared" ref="BC4:BC31" si="9">(BB4-BA4)/AZ4</f>
+        <v>25.626725403087804</v>
+      </c>
+      <c r="BD4" s="45">
+        <f t="shared" ref="BD4:BD31" si="10">ROUND(BC4,0)</f>
+        <v>26</v>
+      </c>
+      <c r="BE4" s="45">
+        <f t="shared" ref="BE4:BE31" si="11">B4</f>
+        <v>26</v>
+      </c>
+      <c r="BF4" s="3">
+        <f t="shared" ref="BF4:BF31" si="12">BE4-BD4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="5" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>75</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B5" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C5" s="19">
         <v>38</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D5" s="20">
         <v>3.4014702703389883</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E5" s="21">
         <v>8.9512375535236541E-2</v>
       </c>
-      <c r="F4" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F5" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
         <v>0.55100000000000005</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L5" s="35">
         <f t="shared" si="2"/>
         <v>0.48766936503741265</v>
       </c>
-      <c r="O4" s="3">
-        <f>C18</f>
+      <c r="O5" s="23">
+        <f>$C$19</f>
         <v>68</v>
       </c>
-      <c r="P4" s="3">
-        <f>K18</f>
+      <c r="P5" s="3">
+        <f>$K$19</f>
         <v>0.17035736153843978</v>
       </c>
+      <c r="U5" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X5" s="45">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="45">
+        <f>$T$10*X5+$U$9</f>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="AD5" s="19"/>
+      <c r="AG5" s="23">
+        <f>$C$19</f>
+        <v>68</v>
+      </c>
+      <c r="AH5" s="3">
+        <f>$F$19</f>
+        <v>0.82</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AP5" s="45">
+        <v>29</v>
+      </c>
+      <c r="AQ5" s="45">
+        <f t="shared" si="4"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AT5" s="19">
+        <v>38</v>
+      </c>
+      <c r="AU5" s="19">
+        <f t="shared" si="5"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AY5" s="19">
+        <v>38</v>
+      </c>
+      <c r="AZ5" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="BA5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="BB5" s="3">
+        <f t="shared" si="8"/>
+        <v>3.4014702703389883</v>
+      </c>
+      <c r="BC5" s="3">
+        <f t="shared" si="9"/>
+        <v>24.334303135728863</v>
+      </c>
+      <c r="BD5" s="45">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="BE5" s="45">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="BF5" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BG5" s="50"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="6" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>89</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C6" s="19">
         <v>38</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D6" s="35">
         <v>1.8027756377319946</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E6" s="21">
         <v>4.744146415084196E-2</v>
       </c>
-      <c r="F5" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="F6" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
         <v>0.55100000000000005</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="3">
-        <f>B3-B5</f>
+      <c r="I6" s="3">
+        <f>B4-B6</f>
         <v>15</v>
       </c>
-      <c r="J5" s="3">
-        <f>D3-D5</f>
+      <c r="J6" s="3">
+        <f>D4-D6</f>
         <v>1.7482805431809452</v>
       </c>
-      <c r="K5" s="39">
-        <f>J5/I5</f>
+      <c r="K6" s="35">
+        <f>J6/I6</f>
         <v>0.11655203621206302</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L6" s="35">
         <f t="shared" si="2"/>
         <v>0.52070323939930141</v>
       </c>
-      <c r="O5" s="3">
-        <f>C20</f>
+      <c r="O6" s="27">
+        <f>$C$21</f>
         <v>50</v>
       </c>
-      <c r="P5" s="3">
-        <f>K20</f>
+      <c r="P6" s="3">
+        <f>$K$21</f>
         <v>0.12536091815253469</v>
       </c>
+      <c r="U6" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X6" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>$T$10*X6+$U$9</f>
+        <v>0.1021111111111111</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="AD6" s="19">
+        <f>AC6-K6</f>
+        <v>-8.112954713222903E-4</v>
+      </c>
+      <c r="AG6" s="27">
+        <f>$C$21</f>
+        <v>50</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>$F$21</f>
+        <v>0.63</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="AT6" s="19">
+        <v>38</v>
+      </c>
+      <c r="AU6" s="19">
+        <f t="shared" si="5"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AV6" s="19">
+        <f>AU6-F6</f>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="AY6" s="19">
+        <v>38</v>
+      </c>
+      <c r="AZ6" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="BA6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="BB6" s="3">
+        <f t="shared" si="8"/>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="BC6" s="3">
+        <f t="shared" si="9"/>
+        <v>10.521581510004435</v>
+      </c>
+      <c r="BD6" s="45">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="BE6" s="45">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="BF6" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="7" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>61</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B7" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C7" s="19">
         <v>38</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D7" s="20">
         <v>5.0159744815937808</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E7" s="21">
         <v>0.13199932846299423</v>
       </c>
-      <c r="F6" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="F7" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="20">
+        <f>C7*0.0145</f>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="2"/>
+        <v>0.47044506932332286</v>
+      </c>
+      <c r="O7" s="15">
+        <f>$C$31</f>
+        <v>35</v>
+      </c>
+      <c r="P7" s="3">
+        <f>$K$31</f>
+        <v>0.11026289689568987</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X7" s="45">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="45">
+        <f>$T$10*X7+$U$9</f>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="AD7" s="19"/>
+      <c r="AG7" s="15">
+        <f>$C$31</f>
+        <v>35</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>$F$31</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AP7" s="45">
+        <v>35</v>
+      </c>
+      <c r="AQ7" s="45">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AT7" s="19">
+        <v>38</v>
+      </c>
+      <c r="AU7" s="19">
+        <f t="shared" si="5"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AV7" s="19"/>
+      <c r="AY7" s="19">
+        <v>38</v>
+      </c>
+      <c r="AZ7" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="BA7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="BB7" s="3">
+        <f t="shared" si="8"/>
+        <v>5.0159744815937808</v>
+      </c>
+      <c r="BC7" s="3">
+        <f t="shared" si="9"/>
+        <v>38.283619520970269</v>
+      </c>
+      <c r="BD7" s="45">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="BE7" s="45">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="BF7" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BG7" s="50"/>
+    </row>
+    <row r="8" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>78</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="19">
+        <v>38</v>
+      </c>
+      <c r="D8" s="20">
+        <v>3.0413812651491097</v>
+      </c>
+      <c r="E8" s="21">
+        <v>8.0036349082871314E-2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
         <v>0.55100000000000005</v>
       </c>
-      <c r="L6" s="39">
-        <f t="shared" si="2"/>
-        <v>0.47044506932332286</v>
-      </c>
-      <c r="O6" s="3">
-        <f>C30</f>
-        <v>35</v>
-      </c>
-      <c r="P6" s="3">
-        <f>K30</f>
-        <v>0.11026289689568987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>78</v>
-      </c>
-      <c r="B7" s="22">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C7" s="23">
-        <v>38</v>
-      </c>
-      <c r="D7" s="24">
-        <v>3.0413812651491097</v>
-      </c>
-      <c r="E7" s="25">
-        <v>8.0036349082871314E-2</v>
-      </c>
-      <c r="F7" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="G7" s="24">
-        <f t="shared" si="1"/>
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="L7" s="39">
+      <c r="L8" s="35">
         <f t="shared" si="2"/>
         <v>0.47723646848372336</v>
       </c>
+      <c r="X8" s="45">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="45">
+        <f>$T$10*X8+$U$9</f>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="AD8" s="19"/>
+      <c r="AP8" s="45">
+        <v>38</v>
+      </c>
+      <c r="AQ8" s="45">
+        <f t="shared" si="4"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AT8" s="19">
+        <v>38</v>
+      </c>
+      <c r="AU8" s="19">
+        <f t="shared" si="5"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AV8" s="19"/>
+      <c r="AY8" s="19">
+        <v>38</v>
+      </c>
+      <c r="AZ8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="BA8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="BB8" s="3">
+        <f t="shared" si="8"/>
+        <v>3.0413812651491097</v>
+      </c>
+      <c r="BC8" s="3">
+        <f t="shared" si="9"/>
+        <v>21.223134130888312</v>
+      </c>
+      <c r="BD8" s="45">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="BE8" s="45">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="BF8" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BG8" s="50"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="9" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>89</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="11">
         <v>29</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="12">
         <v>1.5620499351813304</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="13">
         <v>5.3863790868321736E-2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="12">
         <v>0.5</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
         <v>0.42050000000000004</v>
       </c>
-      <c r="L8" s="35">
-        <f>D8-($K$10*B8)</f>
+      <c r="L9" s="31">
+        <f>D9-($K$11*B9)</f>
         <v>0.43042195833321251</v>
       </c>
+      <c r="O9" s="3">
+        <v>62</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="3">
+        <f>O9-O7</f>
+        <v>27</v>
+      </c>
+      <c r="S9" s="3">
+        <f>P9-P7</f>
+        <v>4.473710310431013E-2</v>
+      </c>
+      <c r="T9" s="44">
+        <f>S9/R9</f>
+        <v>1.6569297446040788E-3</v>
+      </c>
+      <c r="U9" s="45">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" s="3">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>$T$10*X9+$U$9</f>
+        <v>0.11914814814814814</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="AD9" s="19"/>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="AT9" s="11">
+        <v>29</v>
+      </c>
+      <c r="AU9" s="19">
+        <f t="shared" si="5"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AV9" s="19"/>
+      <c r="AY9" s="11">
+        <v>29</v>
+      </c>
+      <c r="AZ9" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="BA9" s="3">
+        <f t="shared" si="7"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="BB9" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5620499351813304</v>
+      </c>
+      <c r="BC9" s="3">
+        <f t="shared" si="9"/>
+        <v>10.403116285465115</v>
+      </c>
+      <c r="BD9" s="45">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="BE9" s="45">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="BF9" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BG9" s="50"/>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="10" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>50</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="11">
         <v>29</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D10" s="31">
         <v>5.629387178015028</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="13">
         <v>0.19411679924189751</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="12">
         <v>0.5</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>0.42050000000000004</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="35">
-        <f t="shared" ref="L9:L12" si="3">D9-($K$10*B9)</f>
+      <c r="L10" s="31">
+        <f t="shared" ref="L10:L13" si="13">D10-($K$11*B10)</f>
         <v>0.48562364688721971</v>
       </c>
+      <c r="R10" s="46">
+        <v>27</v>
+      </c>
+      <c r="S10" s="46">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="T10" s="45">
+        <f>S10/R10</f>
+        <v>1.7037037037037036E-3</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" s="45">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="45">
+        <f>$T$10*X10+$U$9</f>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="AD10" s="19"/>
+      <c r="AG10" s="3">
+        <v>40</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f>AG10-AG8</f>
+        <v>40</v>
+      </c>
+      <c r="AK10" s="3">
+        <f>AH10-AH9</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL10" s="45">
+        <f>AK10/AJ10</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AM10" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="AP10" s="45">
+        <v>50</v>
+      </c>
+      <c r="AQ10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AT10" s="11">
+        <v>29</v>
+      </c>
+      <c r="AU10" s="19">
+        <f t="shared" si="5"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AV10" s="19"/>
+      <c r="AY10" s="11">
+        <v>29</v>
+      </c>
+      <c r="AZ10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="BA10" s="3">
+        <f t="shared" si="7"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="BB10" s="3">
+        <f t="shared" si="8"/>
+        <v>5.629387178015028</v>
+      </c>
+      <c r="BC10" s="3">
+        <f t="shared" si="9"/>
+        <v>50.911454742311236</v>
+      </c>
+      <c r="BD10" s="45">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="BE10" s="45">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="BF10" s="3">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BG10" s="50"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="11" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>95</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="11">
         <v>29</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D11" s="31">
         <v>1.0000000000000009</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="13">
         <v>3.4482758620689682E-2</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="12">
         <v>0.5</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
         <v>0.42050000000000004</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="3">
-        <f>B9-B10</f>
+      <c r="I11" s="3">
+        <f>B10-B11</f>
         <v>45</v>
       </c>
-      <c r="J10" s="3">
-        <f>D9-D10</f>
+      <c r="J11" s="3">
+        <f>D10-D11</f>
         <v>4.6293871780150271</v>
       </c>
-      <c r="K10" s="35">
-        <f>J10/I10</f>
+      <c r="K11" s="31">
+        <f>J11/I11</f>
         <v>0.10287527062255616</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L11" s="31">
+        <f t="shared" si="13"/>
+        <v>0.48562364688722004</v>
+      </c>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y11" s="3">
+        <f>$T$10*X11+$U$9</f>
+        <v>0.1532222222222222</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="19">
         <f t="shared" si="3"/>
-        <v>0.48562364688722004</v>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="AD11" s="19">
+        <f>AC11-K11</f>
+        <v>-2.4678632151487606E-3</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>60</v>
+      </c>
+      <c r="AQ11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>29</v>
+      </c>
+      <c r="AU11" s="19">
+        <f t="shared" si="5"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AV11" s="19">
+        <f>AU11-F11</f>
+        <v>1.749999999999996E-2</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>29</v>
+      </c>
+      <c r="AZ11" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="BA11" s="3">
+        <f t="shared" si="7"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="BB11" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="BC11" s="3">
+        <f t="shared" si="9"/>
+        <v>4.8054223533751479</v>
+      </c>
+      <c r="BD11" s="45">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="BE11" s="45">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="BF11" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="12" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>90</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="11">
         <v>29</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="12">
         <v>1.5811388300841898</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="13">
         <v>5.4522028623592747E-2</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="12">
         <v>0.5</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
         <v>0.42050000000000004</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L12" s="31">
+        <f t="shared" si="13"/>
+        <v>0.55238612385862806</v>
+      </c>
+      <c r="X12" s="45">
+        <v>68</v>
+      </c>
+      <c r="Y12" s="45">
+        <f>$T$10*X12+$U$9</f>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="19">
         <f t="shared" si="3"/>
-        <v>0.55238612385862806</v>
-      </c>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="AD12" s="19"/>
+      <c r="AP12" s="45">
+        <v>68</v>
+      </c>
+      <c r="AQ12" s="45">
+        <f t="shared" si="4"/>
+        <v>0.81</v>
+      </c>
+      <c r="AT12" s="11">
+        <v>29</v>
+      </c>
+      <c r="AU12" s="19">
+        <f t="shared" si="5"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AV12" s="19"/>
+      <c r="AY12" s="11">
+        <v>29</v>
+      </c>
+      <c r="AZ12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="BA12" s="3">
+        <f t="shared" si="7"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="BB12" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="BC12" s="3">
+        <f t="shared" si="9"/>
+        <v>10.593230694309527</v>
+      </c>
+      <c r="BD12" s="45">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="BE12" s="45">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="BF12" s="3">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BG12" s="50"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="13" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>96</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C13" s="11">
         <v>29</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="12">
         <v>0.92195444572928731</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="13">
         <v>3.1791532611354735E-2</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="12">
         <v>0.5</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
         <v>0.42050000000000004</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L13" s="31">
+        <f t="shared" si="13"/>
+        <v>0.51045336323906265</v>
+      </c>
+      <c r="X13" s="3">
+        <v>70</v>
+      </c>
+      <c r="Y13" s="3">
+        <f>$T$10*X13+$U$9</f>
+        <v>0.17025925925925925</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AC13" s="19">
         <f t="shared" si="3"/>
-        <v>0.51045336323906265</v>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="AD13" s="19"/>
+      <c r="AP13" s="3">
+        <v>70</v>
+      </c>
+      <c r="AQ13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AU13" s="19">
+        <f t="shared" si="5"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AV13" s="19"/>
+      <c r="AY13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AZ13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1004074074074074</v>
+      </c>
+      <c r="BA13" s="3">
+        <f t="shared" si="7"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="BB13" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92195444572928731</v>
+      </c>
+      <c r="BC13" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0281335428590035</v>
+      </c>
+      <c r="BD13" s="45">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="BE13" s="45">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BF13" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+    <row r="14" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>89</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B14" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C14" s="23">
         <v>68</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D14" s="24">
         <v>2.7018512172212619</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E14" s="25">
         <v>3.9733106135606794E-2</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F14" s="24">
         <v>0.82</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
         <v>0.9860000000000001</v>
       </c>
-      <c r="L13" s="43">
-        <f>D13-($K$18*B13)</f>
+      <c r="L14" s="39">
+        <f t="shared" ref="L14:L19" si="14">D14-($K$19*B14)</f>
         <v>0.82792024029842426</v>
       </c>
+      <c r="X14" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y14" s="3">
+        <f>$T$10*X14+$U$9</f>
+        <v>0.18729629629629627</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>68</v>
+      </c>
+      <c r="AC14" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="AD14" s="19"/>
+      <c r="AP14" s="3">
+        <v>80</v>
+      </c>
+      <c r="AQ14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AT14" s="23">
+        <v>68</v>
+      </c>
+      <c r="AU14" s="19">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="AV14" s="19"/>
+      <c r="AY14" s="23">
+        <v>68</v>
+      </c>
+      <c r="AZ14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="BA14" s="3">
+        <f t="shared" si="7"/>
+        <v>0.81</v>
+      </c>
+      <c r="BB14" s="3">
+        <f t="shared" si="8"/>
+        <v>2.7018512172212619</v>
+      </c>
+      <c r="BC14" s="3">
+        <f t="shared" si="9"/>
+        <v>11.33850896003864</v>
+      </c>
+      <c r="BD14" s="45">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="BE14" s="45">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="BF14" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="15" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>97</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B15" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C15" s="23">
         <v>68</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D15" s="24">
         <v>1.2806248474865698</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E15" s="25">
         <v>1.8832718345390732E-2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F15" s="24">
         <v>0.82</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G15" s="24">
         <f t="shared" si="1"/>
         <v>0.9860000000000001</v>
       </c>
-      <c r="L14" s="43">
-        <f>D14-($K$18*B14)</f>
+      <c r="L15" s="39">
+        <f t="shared" si="14"/>
         <v>0.76955276287125041</v>
       </c>
+      <c r="X15" s="3">
+        <v>90</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>$T$10*X15+$U$9</f>
+        <v>0.20433333333333331</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>68</v>
+      </c>
+      <c r="AC15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="AD15" s="19"/>
+      <c r="AP15" s="3">
+        <v>90</v>
+      </c>
+      <c r="AQ15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97499999999999987</v>
+      </c>
+      <c r="AT15" s="23">
+        <v>68</v>
+      </c>
+      <c r="AU15" s="19">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="AV15" s="19"/>
+      <c r="AY15" s="23">
+        <v>68</v>
+      </c>
+      <c r="AZ15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="BA15" s="3">
+        <f t="shared" si="7"/>
+        <v>0.81</v>
+      </c>
+      <c r="BB15" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2806248474865698</v>
+      </c>
+      <c r="BC15" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8206150681769997</v>
+      </c>
+      <c r="BD15" s="45">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BE15" s="45">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BF15" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+    <row r="16" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>80</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B16" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C16" s="23">
         <v>68</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D16" s="39">
         <v>4.1773197148410786</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E16" s="25">
         <v>6.1431172277074682E-2</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F16" s="24">
         <v>0.82</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G16" s="24">
         <f t="shared" si="1"/>
         <v>0.9860000000000001</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="43">
-        <f>D15-($K$18*B15)</f>
+      <c r="L16" s="39">
+        <f t="shared" si="14"/>
         <v>0.77017248407228323</v>
       </c>
+      <c r="X16" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>$T$10*X16+$U$9</f>
+        <v>0.22137037037037036</v>
+      </c>
+      <c r="AB16" s="23">
+        <v>68</v>
+      </c>
+      <c r="AC16" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="AD16" s="19"/>
+      <c r="AP16" s="3">
+        <v>100</v>
+      </c>
+      <c r="AQ16" s="3">
+        <f t="shared" si="4"/>
+        <v>1.05</v>
+      </c>
+      <c r="AT16" s="23">
+        <v>68</v>
+      </c>
+      <c r="AU16" s="19">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="AV16" s="19"/>
+      <c r="AY16" s="23">
+        <v>68</v>
+      </c>
+      <c r="AZ16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="BA16" s="3">
+        <f t="shared" si="7"/>
+        <v>0.81</v>
+      </c>
+      <c r="BB16" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1773197148410786</v>
+      </c>
+      <c r="BC16" s="3">
+        <f t="shared" si="9"/>
+        <v>20.181494406372725</v>
+      </c>
+      <c r="BD16" s="45">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="BE16" s="45">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="BF16" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+    <row r="17" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>97</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B17" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C17" s="23">
         <v>68</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D17" s="24">
         <v>1.4035668847618257</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E17" s="25">
         <v>2.0640689481791555E-2</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F17" s="24">
         <v>0.82</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G17" s="24">
         <f t="shared" si="1"/>
         <v>0.9860000000000001</v>
       </c>
-      <c r="L16" s="43">
-        <f>D16-($K$18*B16)</f>
+      <c r="L17" s="39">
+        <f t="shared" si="14"/>
         <v>0.89249480014650628</v>
       </c>
+      <c r="AB17" s="23">
+        <v>68</v>
+      </c>
+      <c r="AC17" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="AD17" s="19"/>
+      <c r="AT17" s="23">
+        <v>68</v>
+      </c>
+      <c r="AU17" s="19">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="AV17" s="19"/>
+      <c r="AY17" s="23">
+        <v>68</v>
+      </c>
+      <c r="AZ17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="BA17" s="3">
+        <f t="shared" si="7"/>
+        <v>0.81</v>
+      </c>
+      <c r="BB17" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4035668847618257</v>
+      </c>
+      <c r="BC17" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5574485879177122</v>
+      </c>
+      <c r="BD17" s="45">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="BE17" s="45">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BF17" s="3">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+    <row r="18" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>94</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B18" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C18" s="23">
         <v>68</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D18" s="24">
         <v>1.7262676501632095</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E18" s="25">
         <v>2.5386288972988374E-2</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F18" s="24">
         <v>0.82</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G18" s="24">
         <f t="shared" si="1"/>
         <v>0.9860000000000001</v>
       </c>
-      <c r="L17" s="43">
-        <f>D17-($K$18*B17)</f>
+      <c r="L18" s="39">
+        <f t="shared" si="14"/>
         <v>0.70412348093257071</v>
       </c>
+      <c r="AB18" s="23">
+        <v>68</v>
+      </c>
+      <c r="AC18" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="AD18" s="19"/>
+      <c r="AT18" s="23">
+        <v>68</v>
+      </c>
+      <c r="AU18" s="19">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="AV18" s="19"/>
+      <c r="AY18" s="23">
+        <v>68</v>
+      </c>
+      <c r="AZ18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="BA18" s="3">
+        <f t="shared" si="7"/>
+        <v>0.81</v>
+      </c>
+      <c r="BB18" s="3">
+        <f t="shared" si="8"/>
+        <v>1.7262676501632095</v>
+      </c>
+      <c r="BC18" s="3">
+        <f t="shared" si="9"/>
+        <v>5.4915042296130201</v>
+      </c>
+      <c r="BD18" s="45">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="BE18" s="45">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="BF18" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="19" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>73</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B19" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C19" s="23">
         <v>68</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D19" s="39">
         <v>5.303772242470445</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E19" s="25">
         <v>7.7996650624565372E-2</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F19" s="24">
         <v>0.82</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G19" s="24">
         <f t="shared" si="1"/>
         <v>0.9860000000000001</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="3">
-        <f>B18-B17</f>
+      <c r="I19" s="3">
+        <f>B19-B18</f>
         <v>21</v>
       </c>
-      <c r="J18" s="3">
-        <f>D18-D17</f>
+      <c r="J19" s="3">
+        <f>D19-D18</f>
         <v>3.5775045923072355</v>
       </c>
-      <c r="K18" s="43">
-        <f>J18/I18</f>
+      <c r="K19" s="39">
+        <f>J19/I19</f>
         <v>0.17035736153843978</v>
       </c>
-      <c r="L18" s="43">
-        <f>D18-($K$18*B18)</f>
+      <c r="L19" s="39">
+        <f t="shared" si="14"/>
         <v>0.70412348093257116</v>
       </c>
+      <c r="AB19" s="23">
+        <v>68</v>
+      </c>
+      <c r="AC19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="AD19" s="19">
+        <f>AC19-K19</f>
+        <v>-3.5055096865879432E-3</v>
+      </c>
+      <c r="AT19" s="23">
+        <v>68</v>
+      </c>
+      <c r="AU19" s="19">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="AV19" s="19">
+        <f>AU19-F19</f>
+        <v>-9.9999999999998979E-3</v>
+      </c>
+      <c r="AY19" s="23">
+        <v>68</v>
+      </c>
+      <c r="AZ19" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16685185185185183</v>
+      </c>
+      <c r="BA19" s="3">
+        <f t="shared" si="7"/>
+        <v>0.81</v>
+      </c>
+      <c r="BB19" s="3">
+        <f t="shared" si="8"/>
+        <v>5.303772242470445</v>
+      </c>
+      <c r="BC19" s="3">
+        <f t="shared" si="9"/>
+        <v>26.932708223463273</v>
+      </c>
+      <c r="BD19" s="45">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="BE19" s="45">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="BF19" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+    <row r="20" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>24</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B20" s="36">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C20" s="27">
         <v>50</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D20" s="37">
         <v>10.117806086301517</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E20" s="29">
         <v>0.20235612172603035</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F20" s="28">
         <v>0.63</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G20" s="28">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="41">
-        <f>D19-($K$20*B19)</f>
+      <c r="L20" s="37">
+        <f>D20-($K$21*B20)</f>
         <v>0.59037630670887964</v>
       </c>
+      <c r="AB20" s="27">
+        <v>50</v>
+      </c>
+      <c r="AC20" s="19">
+        <f t="shared" si="3"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="AD20" s="19"/>
+      <c r="AT20" s="27">
+        <v>50</v>
+      </c>
+      <c r="AU20" s="19">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AV20" s="19"/>
+      <c r="AY20" s="27">
+        <v>50</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="BA20" s="3">
+        <f t="shared" si="7"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BB20" s="3">
+        <f t="shared" si="8"/>
+        <v>10.117806086301517</v>
+      </c>
+      <c r="BC20" s="3">
+        <f t="shared" si="9"/>
+        <v>69.337983228213474</v>
+      </c>
+      <c r="BD20" s="45">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="BE20" s="45">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="BF20" s="50">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="BG20" s="50"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+    <row r="21" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>84</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B21" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C21" s="27">
         <v>50</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D21" s="37">
         <v>2.5961509971494348</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E21" s="29">
         <v>5.1923019942988695E-2</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F21" s="28">
         <v>0.63</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G21" s="28">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="3">
-        <f>B19-B20</f>
+      <c r="I21" s="3">
+        <f>B20-B21</f>
         <v>60</v>
       </c>
-      <c r="J20" s="3">
-        <f>D19-D20</f>
+      <c r="J21" s="3">
+        <f>D20-D21</f>
         <v>7.5216550891520821</v>
       </c>
-      <c r="K20" s="41">
-        <f>J20/I20</f>
+      <c r="K21" s="37">
+        <f>J21/I21</f>
         <v>0.12536091815253469</v>
       </c>
-      <c r="L20" s="41">
-        <f>D20-($K$20*B20)</f>
+      <c r="L21" s="37">
+        <f>D21-($K$21*B21)</f>
         <v>0.59037630670887964</v>
       </c>
+      <c r="AB21" s="27">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="19">
+        <f t="shared" si="3"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="AD21" s="19">
+        <f>AC21-K21</f>
+        <v>1.0824267032650492E-2</v>
+      </c>
+      <c r="AT21" s="27">
+        <v>50</v>
+      </c>
+      <c r="AU21" s="19">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AV21" s="19">
+        <f>AU21-F21</f>
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="AY21" s="27">
+        <v>50</v>
+      </c>
+      <c r="AZ21" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="BA21" s="3">
+        <f t="shared" si="7"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BB21" s="3">
+        <f t="shared" si="8"/>
+        <v>2.5961509971494348</v>
+      </c>
+      <c r="BC21" s="3">
+        <f t="shared" si="9"/>
+        <v>14.106901529245237</v>
+      </c>
+      <c r="BD21" s="45">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="BE21" s="45">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="BF21" s="50">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BG21" s="50"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+    <row r="22" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>86</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B22" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C22" s="27">
         <v>50</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D22" s="28">
         <v>2.4186773244895661</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E22" s="29">
         <v>4.8373546489791322E-2</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F22" s="28">
         <v>0.63</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G22" s="28">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="L21" s="41">
-        <f>D21-($K$20*B21)</f>
+      <c r="L22" s="37">
+        <f>D22-($K$21*B22)</f>
         <v>0.66362447035408034</v>
       </c>
+      <c r="AB22" s="27">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="19">
+        <f t="shared" si="3"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="AD22" s="19"/>
+      <c r="AT22" s="27">
+        <v>50</v>
+      </c>
+      <c r="AU22" s="19">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AV22" s="19"/>
+      <c r="AY22" s="27">
+        <v>50</v>
+      </c>
+      <c r="AZ22" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="BA22" s="3">
+        <f t="shared" si="7"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BB22" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4186773244895661</v>
+      </c>
+      <c r="BC22" s="3">
+        <f t="shared" si="9"/>
+        <v>12.803722535006331</v>
+      </c>
+      <c r="BD22" s="45">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="BE22" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="BF22" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+    <row r="23" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>68</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B23" s="26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C23" s="27">
         <v>50</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D23" s="28">
         <v>4.6518813398452057</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E23" s="29">
         <v>9.303762679690411E-2</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F23" s="28">
         <v>0.63</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G23" s="28">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="L22" s="41">
-        <f t="shared" ref="L22:L24" si="4">D22-($K$20*B22)</f>
+      <c r="L23" s="37">
+        <f t="shared" ref="L23:L25" si="15">D23-($K$21*B23)</f>
         <v>0.64033195896409545</v>
       </c>
+      <c r="AB23" s="27">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="19">
+        <f t="shared" si="3"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="AD23" s="19"/>
+      <c r="AT23" s="27">
+        <v>50</v>
+      </c>
+      <c r="AU23" s="19">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AV23" s="19"/>
+      <c r="AY23" s="27">
+        <v>50</v>
+      </c>
+      <c r="AZ23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="BA23" s="3">
+        <f t="shared" si="7"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BB23" s="3">
+        <f t="shared" si="8"/>
+        <v>4.6518813398452057</v>
+      </c>
+      <c r="BC23" s="3">
+        <f t="shared" si="9"/>
+        <v>29.202011470171488</v>
+      </c>
+      <c r="BD23" s="45">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="BE23" s="45">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="BF23" s="50">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BG23" s="50"/>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+    <row r="24" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>74</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B24" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C24" s="27">
         <v>50</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D24" s="28">
         <v>3.8418745424597094</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E24" s="29">
         <v>7.6837490849194182E-2</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F24" s="28">
         <v>0.63</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G24" s="28">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="L23" s="41">
-        <f t="shared" si="4"/>
+      <c r="L24" s="37">
+        <f t="shared" si="15"/>
         <v>0.58249067049380754</v>
       </c>
+      <c r="AB24" s="27">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="19">
+        <f t="shared" si="3"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="AD24" s="19"/>
+      <c r="AT24" s="27">
+        <v>50</v>
+      </c>
+      <c r="AU24" s="19">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AV24" s="19"/>
+      <c r="AY24" s="27">
+        <v>50</v>
+      </c>
+      <c r="AZ24" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="BA24" s="3">
+        <f t="shared" si="7"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8418745424597094</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" si="9"/>
+        <v>23.254178038186605</v>
+      </c>
+      <c r="BD24" s="45">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="BE24" s="45">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="BF24" s="50">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BG24" s="50"/>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+    <row r="25" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>74</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B25" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C25" s="27">
         <v>50</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D25" s="28">
         <v>3.8600518131237571</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E25" s="29">
         <v>7.720103626247514E-2</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F25" s="28">
         <v>0.63</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G25" s="28">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="L24" s="41">
-        <f t="shared" si="4"/>
+      <c r="L25" s="37">
+        <f t="shared" si="15"/>
         <v>0.60066794115785527</v>
       </c>
+      <c r="AB25" s="27">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="19">
+        <f t="shared" si="3"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="AD25" s="19"/>
+      <c r="AT25" s="27">
+        <v>50</v>
+      </c>
+      <c r="AU25" s="19">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AV25" s="19"/>
+      <c r="AY25" s="27">
+        <v>50</v>
+      </c>
+      <c r="AZ25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13618518518518519</v>
+      </c>
+      <c r="BA25" s="3">
+        <f t="shared" si="7"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BB25" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8600518131237571</v>
+      </c>
+      <c r="BC25" s="3">
+        <f t="shared" si="9"/>
+        <v>23.387652693592997</v>
+      </c>
+      <c r="BD25" s="45">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="BE25" s="45">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="BF25" s="50">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BG25" s="50"/>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+    <row r="26" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>84</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B26" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C26" s="15">
         <v>35</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D26" s="16">
         <v>2.3600847442411883</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E26" s="17">
         <v>6.7430992692605385E-2</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F26" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G26" s="16">
         <f t="shared" si="1"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="L25" s="37">
-        <f>D25-($K$30*B25)</f>
+      <c r="L26" s="33">
+        <f>D26-($K$31*B26)</f>
         <v>0.59587839391015041</v>
       </c>
+      <c r="AB26" s="15">
+        <v>35</v>
+      </c>
+      <c r="AC26" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="AD26" s="19"/>
+      <c r="AT26" s="15">
+        <v>35</v>
+      </c>
+      <c r="AU26" s="19">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AV26" s="19"/>
+      <c r="AY26" s="15">
+        <v>35</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="BA26" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5625</v>
+      </c>
+      <c r="BB26" s="3">
+        <f t="shared" si="8"/>
+        <v>2.3600847442411883</v>
+      </c>
+      <c r="BC26" s="3">
+        <f t="shared" si="9"/>
+        <v>16.248673617178468</v>
+      </c>
+      <c r="BD26" s="45">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="BE26" s="45">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="BF26" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+    <row r="27" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>89</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B27" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C27" s="15">
         <v>35</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D27" s="16">
         <v>1.8027756377319917</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E27" s="17">
         <v>5.1507875363771188E-2</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F27" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G27" s="16">
         <f t="shared" si="1"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="L26" s="37">
-        <f t="shared" ref="L26:L29" si="5">D26-($K$30*B26)</f>
+      <c r="L27" s="33">
+        <f t="shared" ref="L27:L30" si="16">D27-($K$31*B27)</f>
         <v>0.58988377187940322</v>
       </c>
+      <c r="AB27" s="15">
+        <v>35</v>
+      </c>
+      <c r="AC27" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="AD27" s="19"/>
+      <c r="AT27" s="15">
+        <v>35</v>
+      </c>
+      <c r="AU27" s="19">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AV27" s="19"/>
+      <c r="AY27" s="15">
+        <v>35</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="BA27" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5625</v>
+      </c>
+      <c r="BB27" s="3">
+        <f t="shared" si="8"/>
+        <v>1.8027756377319917</v>
+      </c>
+      <c r="BC27" s="3">
+        <f t="shared" si="9"/>
+        <v>11.211062008290519</v>
+      </c>
+      <c r="BD27" s="45">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="BE27" s="45">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="BF27" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+    <row r="28" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>93</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B28" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C28" s="15">
         <v>35</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D28" s="16">
         <v>1.3416407864998765</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E28" s="17">
         <v>3.8332593899996471E-2</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F28" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G28" s="16">
         <f t="shared" si="1"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L28" s="33">
+        <f t="shared" si="16"/>
+        <v>0.56980050823004746</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>35</v>
+      </c>
+      <c r="AC28" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="AD28" s="19"/>
+      <c r="AT28" s="15">
+        <v>35</v>
+      </c>
+      <c r="AU28" s="19">
         <f t="shared" si="5"/>
-        <v>0.56980050823004746</v>
+        <v>0.5625</v>
+      </c>
+      <c r="AV28" s="19"/>
+      <c r="AY28" s="15">
+        <v>35</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="BA28" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5625</v>
+      </c>
+      <c r="BB28" s="3">
+        <f t="shared" si="8"/>
+        <v>1.3416407864998765</v>
+      </c>
+      <c r="BC28" s="3">
+        <f t="shared" si="9"/>
+        <v>7.0427858170393929</v>
+      </c>
+      <c r="BD28" s="45">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="BE28" s="45">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="BF28" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+    <row r="29" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>98</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B29" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C29" s="15">
         <v>35</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D29" s="33">
         <v>0.80622577482985514</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E29" s="17">
         <v>2.303502213799586E-2</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F29" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G29" s="16">
         <f t="shared" si="1"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L29" s="33">
+        <f t="shared" si="16"/>
+        <v>0.58569998103847543</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>35</v>
+      </c>
+      <c r="AC29" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="AD29" s="19"/>
+      <c r="AT29" s="15">
+        <v>35</v>
+      </c>
+      <c r="AU29" s="19">
         <f t="shared" si="5"/>
-        <v>0.58569998103847543</v>
+        <v>0.5625</v>
+      </c>
+      <c r="AV29" s="19"/>
+      <c r="AY29" s="15">
+        <v>35</v>
+      </c>
+      <c r="AZ29" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="BA29" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5625</v>
+      </c>
+      <c r="BB29" s="3">
+        <f t="shared" si="8"/>
+        <v>0.80622577482985514</v>
+      </c>
+      <c r="BC29" s="3">
+        <f t="shared" si="9"/>
+        <v>2.2030786476083324</v>
+      </c>
+      <c r="BD29" s="45">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BE29" s="45">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BF29" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+    <row r="30" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>75</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B30" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C30" s="15">
         <v>35</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="16">
         <v>3.3541019662496852</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="17">
         <v>9.5831484749991008E-2</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G30" s="16">
         <f t="shared" si="1"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L30" s="33">
+        <f t="shared" si="16"/>
+        <v>0.59752954385743839</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>35</v>
+      </c>
+      <c r="AC30" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="AD30" s="19"/>
+      <c r="AT30" s="15">
+        <v>35</v>
+      </c>
+      <c r="AU30" s="19">
         <f t="shared" si="5"/>
-        <v>0.59752954385743839</v>
+        <v>0.5625</v>
+      </c>
+      <c r="AV30" s="19"/>
+      <c r="AY30" s="15">
+        <v>35</v>
+      </c>
+      <c r="AZ30" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="BA30" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5625</v>
+      </c>
+      <c r="BB30" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3541019662496852</v>
+      </c>
+      <c r="BC30" s="3">
+        <f t="shared" si="9"/>
+        <v>25.233764006943925</v>
+      </c>
+      <c r="BD30" s="45">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="BE30" s="45">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="BF30" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+    <row r="31" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>74</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B31" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C31" s="15">
         <v>35</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D31" s="33">
         <v>3.4525353003264123</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E31" s="17">
         <v>9.8643865723611779E-2</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G31" s="16">
         <f t="shared" si="1"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="3">
-        <f>B30-B28</f>
+      <c r="I31" s="3">
+        <f>B31-B29</f>
         <v>24</v>
       </c>
-      <c r="J30" s="3">
-        <f>D30-D28</f>
+      <c r="J31" s="3">
+        <f>D31-D29</f>
         <v>2.646309525496557</v>
       </c>
-      <c r="K30" s="37">
-        <f>J30/I30</f>
+      <c r="K31" s="33">
+        <f>J31/I31</f>
         <v>0.11026289689568987</v>
       </c>
-      <c r="L30" s="37">
-        <f>D30-($K$30*B30)</f>
+      <c r="L31" s="33">
+        <f>D31-($K$31*B31)</f>
         <v>0.58569998103847576</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>35</v>
+      </c>
+      <c r="AC31" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="AD31" s="19">
+        <f>AC31-K31</f>
+        <v>3.6673273393975081E-4</v>
+      </c>
+      <c r="AT31" s="15">
+        <v>35</v>
+      </c>
+      <c r="AU31" s="19">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AV31" s="19">
+        <f>AU31-F31</f>
+        <v>-1.749999999999996E-2</v>
+      </c>
+      <c r="AY31" s="15">
+        <v>35</v>
+      </c>
+      <c r="AZ31" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11062962962962962</v>
+      </c>
+      <c r="BA31" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5625</v>
+      </c>
+      <c r="BB31" s="3">
+        <f t="shared" si="8"/>
+        <v>3.4525353003264123</v>
+      </c>
+      <c r="BC31" s="3">
+        <f t="shared" si="9"/>
+        <v>26.123519621296666</v>
+      </c>
+      <c r="BD31" s="45">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="BE31" s="45">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="BF31" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="N1:AD1"/>
+    <mergeCell ref="AG1:AV1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -15090,12 +18542,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -15140,10 +18592,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -15501,11 +18953,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
         <v>72.3</v>
@@ -15538,12 +18990,12 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="8">
         <v>10.7</v>
       </c>
@@ -15893,11 +19345,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8">
         <v>70</v>
@@ -15930,12 +19382,12 @@
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="8">
         <v>35</v>
       </c>
@@ -16285,11 +19737,11 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8">
         <v>88.3</v>
@@ -16322,12 +19774,12 @@
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="8">
         <v>9</v>
       </c>
@@ -16677,11 +20129,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="7"/>
       <c r="E33" s="8">
         <v>68.3</v>
@@ -16714,12 +20166,12 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="8">
         <v>20.8</v>
       </c>
@@ -17069,11 +20521,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="7"/>
       <c r="E41" s="8">
         <v>85.5</v>
@@ -17106,12 +20558,12 @@
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="8">
         <v>8.8000000000000007</v>
       </c>
@@ -17144,6 +20596,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:D18"/>
@@ -17151,11 +20608,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TrackmanData/TestCenterReports.xlsx
+++ b/TrackmanData/TestCenterReports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehn/IdeaProjects/GCQuadCombineTest/TrackmanData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F795922B-1BB1-8F4F-82AE-C2CCF5793D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07DFECC-66B1-514B-A187-E4B8E06A4AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="25080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Pin absolute penalty point" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,6 @@
     <sheet name="From Pin Percent" sheetId="4" r:id="rId3"/>
     <sheet name="TestCenterReport01" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'From Pin absolute penalty point'!$AG$3:$AG$7</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'From Pin absolute penalty point'!$AH$3:$AH$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -918,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1001,21 +997,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,11 +1016,19 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14878,8 +14877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC5614-BCA1-4843-A31B-9FFACE729F12}">
   <dimension ref="A1:BG31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P52" zoomScale="118" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="BG3" sqref="BG3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="160" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14893,57 +14892,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="N1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AG1" s="49" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AG1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
     </row>
     <row r="2" spans="1:59" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -15069,13 +15068,13 @@
       <c r="BC2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BD2" s="52" t="s">
+      <c r="BD2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="BE2" s="52" t="s">
+      <c r="BE2" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="BF2" s="51" t="s">
+      <c r="BF2" s="44" t="s">
         <v>82</v>
       </c>
       <c r="BG2" s="1" t="s">
@@ -15125,7 +15124,7 @@
         <v>10</v>
       </c>
       <c r="Y3" s="3">
-        <f>$T$10*X3+$U$9</f>
+        <f t="shared" ref="Y3:Y16" si="0">$T$10*X3+$U$9</f>
         <v>6.8037037037037035E-2</v>
       </c>
       <c r="AB3" s="19">
@@ -15181,11 +15180,11 @@
         <f>(BB3-BA3)/AZ3</f>
         <v>42.747527325161279</v>
       </c>
-      <c r="BD3" s="45">
+      <c r="BD3" s="41">
         <f>ROUND(BC3,0)</f>
         <v>43</v>
       </c>
-      <c r="BE3" s="45">
+      <c r="BE3" s="41">
         <f>B3</f>
         <v>43</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="34">
-        <f t="shared" ref="B4:B31" si="0">100-A4</f>
+        <f t="shared" ref="B4:B31" si="1">100-A4</f>
         <v>26</v>
       </c>
       <c r="C4" s="19">
@@ -15215,14 +15214,14 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" ref="G4:G31" si="1">C4*0.0145</f>
+        <f t="shared" ref="G4:G31" si="2">C4*0.0145</f>
         <v>0.55100000000000005</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" ref="L4:L8" si="2">D4-($K$6*B4)</f>
+        <f t="shared" ref="L4:L8" si="3">D4-($K$6*B4)</f>
         <v>0.52070323939930141</v>
       </c>
       <c r="O4" s="11">
@@ -15240,14 +15239,14 @@
         <v>20</v>
       </c>
       <c r="Y4" s="3">
-        <f>$T$10*X4+$U$9</f>
+        <f t="shared" si="0"/>
         <v>8.5074074074074066E-2</v>
       </c>
       <c r="AB4" s="19">
         <v>38</v>
       </c>
       <c r="AC4" s="19">
-        <f t="shared" ref="AC4:AC31" si="3">$T$10*AB4+$U$9</f>
+        <f t="shared" ref="AC4:AC31" si="4">$T$10*AB4+$U$9</f>
         <v>0.11574074074074073</v>
       </c>
       <c r="AD4" s="19"/>
@@ -15266,14 +15265,14 @@
         <v>20</v>
       </c>
       <c r="AQ4" s="3">
-        <f t="shared" ref="AQ4:AQ16" si="4">$AL$10*AP4+$AM$10</f>
+        <f t="shared" ref="AQ4:AQ16" si="5">$AL$10*AP4+$AM$10</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="AT4" s="19">
         <v>38</v>
       </c>
       <c r="AU4" s="19">
-        <f t="shared" ref="AU4:AU31" si="5">$AL$10*AT4+$AM$10</f>
+        <f t="shared" ref="AU4:AU31" si="6">$AL$10*AT4+$AM$10</f>
         <v>0.58499999999999996</v>
       </c>
       <c r="AV4" s="19"/>
@@ -15281,31 +15280,31 @@
         <v>38</v>
       </c>
       <c r="AZ4" s="3">
-        <f t="shared" ref="AZ4:AZ31" si="6">$T$10*AY4+$U$9</f>
+        <f t="shared" ref="AZ4:AZ31" si="7">$T$10*AY4+$U$9</f>
         <v>0.11574074074074073</v>
       </c>
       <c r="BA4" s="3">
-        <f t="shared" ref="BA4:BA31" si="7">$AL$10*AY4+$AM$10</f>
+        <f t="shared" ref="BA4:BA31" si="8">$AL$10*AY4+$AM$10</f>
         <v>0.58499999999999996</v>
       </c>
       <c r="BB4" s="3">
-        <f t="shared" ref="BB4:BB31" si="8">D4</f>
+        <f t="shared" ref="BB4:BB31" si="9">D4</f>
         <v>3.5510561809129397</v>
       </c>
       <c r="BC4" s="3">
-        <f t="shared" ref="BC4:BC31" si="9">(BB4-BA4)/AZ4</f>
+        <f t="shared" ref="BC4:BC31" si="10">(BB4-BA4)/AZ4</f>
         <v>25.626725403087804</v>
       </c>
-      <c r="BD4" s="45">
-        <f t="shared" ref="BD4:BD31" si="10">ROUND(BC4,0)</f>
+      <c r="BD4" s="41">
+        <f t="shared" ref="BD4:BD31" si="11">ROUND(BC4,0)</f>
         <v>26</v>
       </c>
-      <c r="BE4" s="45">
-        <f t="shared" ref="BE4:BE31" si="11">B4</f>
+      <c r="BE4" s="41">
+        <f t="shared" ref="BE4:BE31" si="12">B4</f>
         <v>26</v>
       </c>
       <c r="BF4" s="3">
-        <f t="shared" ref="BF4:BF31" si="12">BE4-BD4</f>
+        <f t="shared" ref="BF4:BF31" si="13">BE4-BD4</f>
         <v>0</v>
       </c>
     </row>
@@ -15314,7 +15313,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C5" s="19">
@@ -15330,11 +15329,11 @@
         <v>0.6</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55100000000000005</v>
       </c>
       <c r="L5" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48766936503741265</v>
       </c>
       <c r="O5" s="23">
@@ -15348,18 +15347,18 @@
       <c r="U5" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="41">
         <v>29</v>
       </c>
-      <c r="Y5" s="45">
-        <f>$T$10*X5+$U$9</f>
+      <c r="Y5" s="41">
+        <f t="shared" si="0"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="AB5" s="19">
         <v>38</v>
       </c>
       <c r="AC5" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="AD5" s="19"/>
@@ -15374,18 +15373,18 @@
       <c r="AM5" s="3">
         <v>0.3</v>
       </c>
-      <c r="AP5" s="45">
+      <c r="AP5" s="41">
         <v>29</v>
       </c>
-      <c r="AQ5" s="45">
-        <f t="shared" si="4"/>
+      <c r="AQ5" s="41">
+        <f t="shared" si="5"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="AT5" s="19">
         <v>38</v>
       </c>
       <c r="AU5" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="AV5" s="19"/>
@@ -15393,41 +15392,41 @@
         <v>38</v>
       </c>
       <c r="AZ5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="BA5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="BB5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4014702703389883</v>
       </c>
       <c r="BC5" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.334303135728863</v>
       </c>
-      <c r="BD5" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD5" s="41">
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="BE5" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE5" s="41">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="BF5" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BG5" s="50"/>
+      <c r="BG5" s="43"/>
     </row>
     <row r="6" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>89</v>
       </c>
       <c r="B6" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C6" s="19">
@@ -15443,7 +15442,7 @@
         <v>0.6</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55100000000000005</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -15462,7 +15461,7 @@
         <v>0.11655203621206302</v>
       </c>
       <c r="L6" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52070323939930141</v>
       </c>
       <c r="O6" s="27">
@@ -15480,14 +15479,14 @@
         <v>30</v>
       </c>
       <c r="Y6" s="3">
-        <f>$T$10*X6+$U$9</f>
+        <f t="shared" si="0"/>
         <v>0.1021111111111111</v>
       </c>
       <c r="AB6" s="19">
         <v>38</v>
       </c>
       <c r="AC6" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="AD6" s="19">
@@ -15509,14 +15508,14 @@
         <v>30</v>
       </c>
       <c r="AQ6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="AT6" s="19">
         <v>38</v>
       </c>
       <c r="AU6" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="AV6" s="19">
@@ -15527,31 +15526,31 @@
         <v>38</v>
       </c>
       <c r="AZ6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="BA6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="BB6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8027756377319946</v>
       </c>
       <c r="BC6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.521581510004435</v>
       </c>
-      <c r="BD6" s="45">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="BE6" s="45">
+      <c r="BD6" s="41">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
+      <c r="BE6" s="41">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
       <c r="BF6" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15560,7 +15559,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C7" s="19">
@@ -15580,7 +15579,7 @@
         <v>0.55100000000000005</v>
       </c>
       <c r="L7" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47044506932332286</v>
       </c>
       <c r="O7" s="15">
@@ -15597,18 +15596,18 @@
       <c r="U7" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="X7" s="45">
+      <c r="X7" s="41">
         <v>35</v>
       </c>
-      <c r="Y7" s="45">
-        <f>$T$10*X7+$U$9</f>
+      <c r="Y7" s="41">
+        <f t="shared" si="0"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="AB7" s="19">
         <v>38</v>
       </c>
       <c r="AC7" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="AD7" s="19"/>
@@ -15623,18 +15622,18 @@
       <c r="AM7" s="3">
         <v>0.3</v>
       </c>
-      <c r="AP7" s="45">
+      <c r="AP7" s="41">
         <v>35</v>
       </c>
-      <c r="AQ7" s="45">
-        <f t="shared" si="4"/>
+      <c r="AQ7" s="41">
+        <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
       <c r="AT7" s="19">
         <v>38</v>
       </c>
       <c r="AU7" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="AV7" s="19"/>
@@ -15642,41 +15641,41 @@
         <v>38</v>
       </c>
       <c r="AZ7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="BA7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="BB7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0159744815937808</v>
       </c>
       <c r="BC7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.283619520970269</v>
       </c>
-      <c r="BD7" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD7" s="41">
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="BE7" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE7" s="41">
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="BF7" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BG7" s="50"/>
+      <c r="BG7" s="43"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>78</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C8" s="19">
@@ -15692,40 +15691,40 @@
         <v>0.6</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55100000000000005</v>
       </c>
       <c r="L8" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47723646848372336</v>
       </c>
-      <c r="X8" s="45">
+      <c r="X8" s="41">
         <v>38</v>
       </c>
-      <c r="Y8" s="45">
-        <f>$T$10*X8+$U$9</f>
+      <c r="Y8" s="41">
+        <f t="shared" si="0"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="AB8" s="19">
         <v>38</v>
       </c>
       <c r="AC8" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="AD8" s="19"/>
-      <c r="AP8" s="45">
+      <c r="AP8" s="41">
         <v>38</v>
       </c>
-      <c r="AQ8" s="45">
-        <f t="shared" si="4"/>
+      <c r="AQ8" s="41">
+        <f t="shared" si="5"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="AT8" s="19">
         <v>38</v>
       </c>
       <c r="AU8" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="AV8" s="19"/>
@@ -15733,41 +15732,41 @@
         <v>38</v>
       </c>
       <c r="AZ8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11574074074074073</v>
       </c>
       <c r="BA8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="BB8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0413812651491097</v>
       </c>
       <c r="BC8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.223134130888312</v>
       </c>
-      <c r="BD8" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD8" s="41">
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="BE8" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE8" s="41">
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="BF8" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BG8" s="50"/>
+      <c r="BG8" s="43"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>89</v>
       </c>
       <c r="B9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C9" s="11">
@@ -15783,7 +15782,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42050000000000004</v>
       </c>
       <c r="L9" s="31">
@@ -15807,11 +15806,11 @@
         <f>P9-P7</f>
         <v>4.473710310431013E-2</v>
       </c>
-      <c r="T9" s="44">
+      <c r="T9" s="40">
         <f>S9/R9</f>
         <v>1.6569297446040788E-3</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="41">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="V9" s="3" t="s">
@@ -15821,14 +15820,14 @@
         <v>40</v>
       </c>
       <c r="Y9" s="3">
-        <f>$T$10*X9+$U$9</f>
+        <f t="shared" si="0"/>
         <v>0.11914814814814814</v>
       </c>
       <c r="AB9" s="11">
         <v>29</v>
       </c>
       <c r="AC9" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="AD9" s="19"/>
@@ -15845,14 +15844,14 @@
         <v>40</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="AT9" s="11">
         <v>29</v>
       </c>
       <c r="AU9" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="AV9" s="19"/>
@@ -15860,41 +15859,41 @@
         <v>29</v>
       </c>
       <c r="AZ9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="BA9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="BB9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5620499351813304</v>
       </c>
       <c r="BC9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.403116285465115</v>
       </c>
-      <c r="BD9" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD9" s="41">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="BE9" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE9" s="41">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="BF9" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BG9" s="50"/>
+      <c r="BG9" s="43"/>
     </row>
     <row r="10" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>50</v>
       </c>
       <c r="B10" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C10" s="11">
@@ -15910,41 +15909,41 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42050000000000004</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="31">
-        <f t="shared" ref="L10:L13" si="13">D10-($K$11*B10)</f>
+        <f t="shared" ref="L10:L13" si="14">D10-($K$11*B10)</f>
         <v>0.48562364688721971</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="42">
         <v>27</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10" s="42">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="41">
         <f>S10/R10</f>
         <v>1.7037037037037036E-3</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="U10" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="X10" s="45">
+      <c r="X10" s="41">
         <v>50</v>
       </c>
-      <c r="Y10" s="45">
-        <f>$T$10*X10+$U$9</f>
+      <c r="Y10" s="41">
+        <f t="shared" si="0"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="AB10" s="11">
         <v>29</v>
       </c>
       <c r="AC10" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="AD10" s="19"/>
@@ -15965,25 +15964,25 @@
         <f>AH10-AH9</f>
         <v>0.3</v>
       </c>
-      <c r="AL10" s="45">
+      <c r="AL10" s="41">
         <f>AK10/AJ10</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AM10" s="45">
+      <c r="AM10" s="41">
         <v>0.3</v>
       </c>
-      <c r="AP10" s="45">
+      <c r="AP10" s="41">
         <v>50</v>
       </c>
       <c r="AQ10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="AT10" s="11">
         <v>29</v>
       </c>
       <c r="AU10" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="AV10" s="19"/>
@@ -15991,41 +15990,41 @@
         <v>29</v>
       </c>
       <c r="AZ10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="BA10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="BB10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.629387178015028</v>
       </c>
       <c r="BC10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.911454742311236</v>
       </c>
-      <c r="BD10" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD10" s="41">
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="BE10" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE10" s="41">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="BF10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="BG10" s="50"/>
+      <c r="BG10" s="43"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>95</v>
       </c>
       <c r="B11" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C11" s="11">
@@ -16041,7 +16040,7 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42050000000000004</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -16060,25 +16059,25 @@
         <v>0.10287527062255616</v>
       </c>
       <c r="L11" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.48562364688722004</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46">
+      <c r="R11" s="42"/>
+      <c r="S11" s="42">
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X11" s="3">
         <v>60</v>
       </c>
       <c r="Y11" s="3">
-        <f>$T$10*X11+$U$9</f>
+        <f t="shared" si="0"/>
         <v>0.1532222222222222</v>
       </c>
       <c r="AB11" s="11">
         <v>29</v>
       </c>
       <c r="AC11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="AD11" s="19">
@@ -16089,14 +16088,14 @@
         <v>60</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="AT11" s="11">
         <v>29</v>
       </c>
       <c r="AU11" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="AV11" s="19">
@@ -16107,31 +16106,31 @@
         <v>29</v>
       </c>
       <c r="AZ11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="BA11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="BB11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="BC11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.8054223533751479</v>
       </c>
-      <c r="BD11" s="45">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="BE11" s="45">
+      <c r="BD11" s="41">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
+      <c r="BE11" s="41">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="BF11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16140,7 +16139,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="11">
@@ -16156,40 +16155,40 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42050000000000004</v>
       </c>
       <c r="L12" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.55238612385862806</v>
       </c>
-      <c r="X12" s="45">
+      <c r="X12" s="41">
         <v>68</v>
       </c>
-      <c r="Y12" s="45">
-        <f>$T$10*X12+$U$9</f>
+      <c r="Y12" s="41">
+        <f t="shared" si="0"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="AB12" s="11">
         <v>29</v>
       </c>
       <c r="AC12" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="AD12" s="19"/>
-      <c r="AP12" s="45">
+      <c r="AP12" s="41">
         <v>68</v>
       </c>
-      <c r="AQ12" s="45">
-        <f t="shared" si="4"/>
+      <c r="AQ12" s="41">
+        <f t="shared" si="5"/>
         <v>0.81</v>
       </c>
       <c r="AT12" s="11">
         <v>29</v>
       </c>
       <c r="AU12" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="AV12" s="19"/>
@@ -16197,41 +16196,41 @@
         <v>29</v>
       </c>
       <c r="AZ12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="BA12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="BB12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5811388300841898</v>
       </c>
       <c r="BC12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.593230694309527</v>
       </c>
-      <c r="BD12" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD12" s="41">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="BE12" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE12" s="41">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="BF12" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="BG12" s="50"/>
+      <c r="BG12" s="43"/>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>96</v>
       </c>
       <c r="B13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C13" s="11">
@@ -16247,25 +16246,25 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42050000000000004</v>
       </c>
       <c r="L13" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.51045336323906265</v>
       </c>
       <c r="X13" s="3">
         <v>70</v>
       </c>
       <c r="Y13" s="3">
-        <f>$T$10*X13+$U$9</f>
+        <f t="shared" si="0"/>
         <v>0.17025925925925925</v>
       </c>
       <c r="AB13" s="11">
         <v>29</v>
       </c>
       <c r="AC13" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="AD13" s="19"/>
@@ -16273,14 +16272,14 @@
         <v>70</v>
       </c>
       <c r="AQ13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="AT13" s="11">
         <v>29</v>
       </c>
       <c r="AU13" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="AV13" s="19"/>
@@ -16288,31 +16287,31 @@
         <v>29</v>
       </c>
       <c r="AZ13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1004074074074074</v>
       </c>
       <c r="BA13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.51749999999999996</v>
       </c>
       <c r="BB13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.92195444572928731</v>
       </c>
       <c r="BC13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0281335428590035</v>
       </c>
-      <c r="BD13" s="45">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="BE13" s="45">
+      <c r="BD13" s="41">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
+      <c r="BE13" s="41">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="BF13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16321,7 +16320,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C14" s="23">
@@ -16337,25 +16336,25 @@
         <v>0.82</v>
       </c>
       <c r="G14" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9860000000000001</v>
       </c>
       <c r="L14" s="39">
-        <f t="shared" ref="L14:L19" si="14">D14-($K$19*B14)</f>
+        <f t="shared" ref="L14:L19" si="15">D14-($K$19*B14)</f>
         <v>0.82792024029842426</v>
       </c>
       <c r="X14" s="3">
         <v>80</v>
       </c>
       <c r="Y14" s="3">
-        <f>$T$10*X14+$U$9</f>
+        <f t="shared" si="0"/>
         <v>0.18729629629629627</v>
       </c>
       <c r="AB14" s="23">
         <v>68</v>
       </c>
       <c r="AC14" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="AD14" s="19"/>
@@ -16363,14 +16362,14 @@
         <v>80</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AT14" s="23">
         <v>68</v>
       </c>
       <c r="AU14" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
       <c r="AV14" s="19"/>
@@ -16378,31 +16377,31 @@
         <v>68</v>
       </c>
       <c r="AZ14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="BA14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
       <c r="BB14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7018512172212619</v>
       </c>
       <c r="BC14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.33850896003864</v>
       </c>
-      <c r="BD14" s="45">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="BE14" s="45">
+      <c r="BD14" s="41">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
+      <c r="BE14" s="41">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
       <c r="BF14" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16411,7 +16410,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C15" s="23">
@@ -16427,25 +16426,25 @@
         <v>0.82</v>
       </c>
       <c r="G15" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9860000000000001</v>
       </c>
       <c r="L15" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.76955276287125041</v>
       </c>
       <c r="X15" s="3">
         <v>90</v>
       </c>
       <c r="Y15" s="3">
-        <f>$T$10*X15+$U$9</f>
+        <f t="shared" si="0"/>
         <v>0.20433333333333331</v>
       </c>
       <c r="AB15" s="23">
         <v>68</v>
       </c>
       <c r="AC15" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="AD15" s="19"/>
@@ -16453,14 +16452,14 @@
         <v>90</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97499999999999987</v>
       </c>
       <c r="AT15" s="23">
         <v>68</v>
       </c>
       <c r="AU15" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
       <c r="AV15" s="19"/>
@@ -16468,31 +16467,31 @@
         <v>68</v>
       </c>
       <c r="AZ15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="BA15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
       <c r="BB15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2806248474865698</v>
       </c>
       <c r="BC15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8206150681769997</v>
       </c>
-      <c r="BD15" s="45">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="BE15" s="45">
+      <c r="BD15" s="41">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
+      <c r="BE15" s="41">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="BF15" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16501,7 +16500,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C16" s="23">
@@ -16517,28 +16516,28 @@
         <v>0.82</v>
       </c>
       <c r="G16" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9860000000000001</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L16" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.77017248407228323</v>
       </c>
       <c r="X16" s="3">
         <v>100</v>
       </c>
       <c r="Y16" s="3">
-        <f>$T$10*X16+$U$9</f>
+        <f t="shared" si="0"/>
         <v>0.22137037037037036</v>
       </c>
       <c r="AB16" s="23">
         <v>68</v>
       </c>
       <c r="AC16" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="AD16" s="19"/>
@@ -16546,14 +16545,14 @@
         <v>100</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
       <c r="AT16" s="23">
         <v>68</v>
       </c>
       <c r="AU16" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
       <c r="AV16" s="19"/>
@@ -16561,31 +16560,31 @@
         <v>68</v>
       </c>
       <c r="AZ16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="BA16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
       <c r="BB16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1773197148410786</v>
       </c>
       <c r="BC16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.181494406372725</v>
       </c>
-      <c r="BD16" s="45">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="BE16" s="45">
+      <c r="BD16" s="41">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
+      <c r="BE16" s="41">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
       <c r="BF16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16594,7 +16593,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C17" s="23">
@@ -16610,18 +16609,18 @@
         <v>0.82</v>
       </c>
       <c r="G17" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9860000000000001</v>
       </c>
       <c r="L17" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.89249480014650628</v>
       </c>
       <c r="AB17" s="23">
         <v>68</v>
       </c>
       <c r="AC17" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="AD17" s="19"/>
@@ -16629,7 +16628,7 @@
         <v>68</v>
       </c>
       <c r="AU17" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
       <c r="AV17" s="19"/>
@@ -16637,31 +16636,31 @@
         <v>68</v>
       </c>
       <c r="AZ17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="BA17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
       <c r="BB17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4035668847618257</v>
       </c>
       <c r="BC17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5574485879177122</v>
       </c>
-      <c r="BD17" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD17" s="41">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="BE17" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE17" s="41">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BF17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
     </row>
@@ -16670,7 +16669,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C18" s="23">
@@ -16686,18 +16685,18 @@
         <v>0.82</v>
       </c>
       <c r="G18" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9860000000000001</v>
       </c>
       <c r="L18" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.70412348093257071</v>
       </c>
       <c r="AB18" s="23">
         <v>68</v>
       </c>
       <c r="AC18" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="AD18" s="19"/>
@@ -16705,7 +16704,7 @@
         <v>68</v>
       </c>
       <c r="AU18" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
       <c r="AV18" s="19"/>
@@ -16713,31 +16712,31 @@
         <v>68</v>
       </c>
       <c r="AZ18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="BA18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
       <c r="BB18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7262676501632095</v>
       </c>
       <c r="BC18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4915042296130201</v>
       </c>
-      <c r="BD18" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD18" s="41">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="BE18" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE18" s="41">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="BF18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -16746,7 +16745,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C19" s="23">
@@ -16762,7 +16761,7 @@
         <v>0.82</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9860000000000001</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -16781,14 +16780,14 @@
         <v>0.17035736153843978</v>
       </c>
       <c r="L19" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.70412348093257116</v>
       </c>
       <c r="AB19" s="23">
         <v>68</v>
       </c>
       <c r="AC19" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="AD19" s="19">
@@ -16799,7 +16798,7 @@
         <v>68</v>
       </c>
       <c r="AU19" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
       <c r="AV19" s="19">
@@ -16810,31 +16809,31 @@
         <v>68</v>
       </c>
       <c r="AZ19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16685185185185183</v>
       </c>
       <c r="BA19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
       <c r="BB19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.303772242470445</v>
       </c>
       <c r="BC19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.932708223463273</v>
       </c>
-      <c r="BD19" s="45">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="BE19" s="45">
+      <c r="BD19" s="41">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
+      <c r="BE19" s="41">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
       <c r="BF19" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16843,7 +16842,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C20" s="27">
@@ -16859,7 +16858,7 @@
         <v>0.63</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72500000000000009</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -16873,7 +16872,7 @@
         <v>50</v>
       </c>
       <c r="AC20" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="AD20" s="19"/>
@@ -16881,7 +16880,7 @@
         <v>50</v>
       </c>
       <c r="AU20" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="AV20" s="19"/>
@@ -16889,41 +16888,41 @@
         <v>50</v>
       </c>
       <c r="AZ20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="BA20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="BB20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.117806086301517</v>
       </c>
       <c r="BC20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.337983228213474</v>
       </c>
-      <c r="BD20" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD20" s="41">
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="BE20" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE20" s="41">
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
-      <c r="BF20" s="50">
-        <f t="shared" si="12"/>
+      <c r="BF20" s="43">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="BG20" s="50"/>
+      <c r="BG20" s="43"/>
     </row>
     <row r="21" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>84</v>
       </c>
       <c r="B21" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C21" s="27">
@@ -16939,7 +16938,7 @@
         <v>0.63</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72500000000000009</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -16965,7 +16964,7 @@
         <v>50</v>
       </c>
       <c r="AC21" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="AD21" s="19">
@@ -16976,7 +16975,7 @@
         <v>50</v>
       </c>
       <c r="AU21" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="AV21" s="19">
@@ -16987,41 +16986,41 @@
         <v>50</v>
       </c>
       <c r="AZ21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="BA21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="BB21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5961509971494348</v>
       </c>
       <c r="BC21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.106901529245237</v>
       </c>
-      <c r="BD21" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD21" s="41">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="BE21" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE21" s="41">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="BF21" s="50">
-        <f t="shared" si="12"/>
+      <c r="BF21" s="43">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="BG21" s="50"/>
+      <c r="BG21" s="43"/>
     </row>
     <row r="22" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>86</v>
       </c>
       <c r="B22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C22" s="27">
@@ -17037,7 +17036,7 @@
         <v>0.63</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72500000000000009</v>
       </c>
       <c r="L22" s="37">
@@ -17048,7 +17047,7 @@
         <v>50</v>
       </c>
       <c r="AC22" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="AD22" s="19"/>
@@ -17056,7 +17055,7 @@
         <v>50</v>
       </c>
       <c r="AU22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="AV22" s="19"/>
@@ -17064,31 +17063,31 @@
         <v>50</v>
       </c>
       <c r="AZ22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="BA22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="BB22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4186773244895661</v>
       </c>
       <c r="BC22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.803722535006331</v>
       </c>
-      <c r="BD22" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD22" s="41">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="BE22" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE22" s="41">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="BF22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -17097,7 +17096,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C23" s="27">
@@ -17113,18 +17112,18 @@
         <v>0.63</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72500000000000009</v>
       </c>
       <c r="L23" s="37">
-        <f t="shared" ref="L23:L25" si="15">D23-($K$21*B23)</f>
+        <f t="shared" ref="L23:L25" si="16">D23-($K$21*B23)</f>
         <v>0.64033195896409545</v>
       </c>
       <c r="AB23" s="27">
         <v>50</v>
       </c>
       <c r="AC23" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="AD23" s="19"/>
@@ -17132,7 +17131,7 @@
         <v>50</v>
       </c>
       <c r="AU23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="AV23" s="19"/>
@@ -17140,41 +17139,41 @@
         <v>50</v>
       </c>
       <c r="AZ23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="BA23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="BB23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6518813398452057</v>
       </c>
       <c r="BC23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.202011470171488</v>
       </c>
-      <c r="BD23" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD23" s="41">
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="BE23" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE23" s="41">
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="BF23" s="50">
-        <f t="shared" si="12"/>
+      <c r="BF23" s="43">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="BG23" s="50"/>
+      <c r="BG23" s="43"/>
     </row>
     <row r="24" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>74</v>
       </c>
       <c r="B24" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C24" s="27">
@@ -17190,18 +17189,18 @@
         <v>0.63</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72500000000000009</v>
       </c>
       <c r="L24" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.58249067049380754</v>
       </c>
       <c r="AB24" s="27">
         <v>50</v>
       </c>
       <c r="AC24" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="AD24" s="19"/>
@@ -17209,7 +17208,7 @@
         <v>50</v>
       </c>
       <c r="AU24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="AV24" s="19"/>
@@ -17217,41 +17216,41 @@
         <v>50</v>
       </c>
       <c r="AZ24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="BB24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8418745424597094</v>
       </c>
       <c r="BC24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.254178038186605</v>
       </c>
-      <c r="BD24" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD24" s="41">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="BE24" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE24" s="41">
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="BF24" s="50">
-        <f t="shared" si="12"/>
+      <c r="BF24" s="43">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="BG24" s="50"/>
+      <c r="BG24" s="43"/>
     </row>
     <row r="25" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>74</v>
       </c>
       <c r="B25" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C25" s="27">
@@ -17267,18 +17266,18 @@
         <v>0.63</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72500000000000009</v>
       </c>
       <c r="L25" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.60066794115785527</v>
       </c>
       <c r="AB25" s="27">
         <v>50</v>
       </c>
       <c r="AC25" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="AD25" s="19"/>
@@ -17286,7 +17285,7 @@
         <v>50</v>
       </c>
       <c r="AU25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="AV25" s="19"/>
@@ -17294,41 +17293,41 @@
         <v>50</v>
       </c>
       <c r="AZ25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13618518518518519</v>
       </c>
       <c r="BA25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="BB25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8600518131237571</v>
       </c>
       <c r="BC25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.387652693592997</v>
       </c>
-      <c r="BD25" s="45">
-        <f t="shared" si="10"/>
+      <c r="BD25" s="41">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="BE25" s="45">
-        <f t="shared" si="11"/>
+      <c r="BE25" s="41">
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="BF25" s="50">
-        <f t="shared" si="12"/>
+      <c r="BF25" s="43">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="BG25" s="50"/>
+      <c r="BG25" s="43"/>
     </row>
     <row r="26" spans="1:59" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>84</v>
       </c>
       <c r="B26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C26" s="15">
@@ -17344,7 +17343,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50750000000000006</v>
       </c>
       <c r="L26" s="33">
@@ -17355,7 +17354,7 @@
         <v>35</v>
       </c>
       <c r="AC26" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="AD26" s="19"/>
@@ -17363,7 +17362,7 @@
         <v>35</v>
       </c>
       <c r="AU26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="AV26" s="19"/>
@@ -17371,31 +17370,31 @@
         <v>35</v>
       </c>
       <c r="AZ26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="BA26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="BB26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3600847442411883</v>
       </c>
       <c r="BC26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.248673617178468</v>
       </c>
-      <c r="BD26" s="45">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="BE26" s="45">
+      <c r="BD26" s="41">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
+      <c r="BE26" s="41">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
       <c r="BF26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17404,7 +17403,7 @@
         <v>89</v>
       </c>
       <c r="B27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C27" s="15">
@@ -17420,18 +17419,18 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50750000000000006</v>
       </c>
       <c r="L27" s="33">
-        <f t="shared" ref="L27:L30" si="16">D27-($K$31*B27)</f>
+        <f t="shared" ref="L27:L30" si="17">D27-($K$31*B27)</f>
         <v>0.58988377187940322</v>
       </c>
       <c r="AB27" s="15">
         <v>35</v>
       </c>
       <c r="AC27" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="AD27" s="19"/>
@@ -17439,7 +17438,7 @@
         <v>35</v>
       </c>
       <c r="AU27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="AV27" s="19"/>
@@ -17447,31 +17446,31 @@
         <v>35</v>
       </c>
       <c r="AZ27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="BA27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="BB27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8027756377319917</v>
       </c>
       <c r="BC27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.211062008290519</v>
       </c>
-      <c r="BD27" s="45">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="BE27" s="45">
+      <c r="BD27" s="41">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
+      <c r="BE27" s="41">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
       <c r="BF27" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17480,7 +17479,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C28" s="15">
@@ -17496,18 +17495,18 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50750000000000006</v>
       </c>
       <c r="L28" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.56980050823004746</v>
       </c>
       <c r="AB28" s="15">
         <v>35</v>
       </c>
       <c r="AC28" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="AD28" s="19"/>
@@ -17515,7 +17514,7 @@
         <v>35</v>
       </c>
       <c r="AU28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="AV28" s="19"/>
@@ -17523,31 +17522,31 @@
         <v>35</v>
       </c>
       <c r="AZ28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="BA28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="BB28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3416407864998765</v>
       </c>
       <c r="BC28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.0427858170393929</v>
       </c>
-      <c r="BD28" s="45">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="BE28" s="45">
+      <c r="BD28" s="41">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
+      <c r="BE28" s="41">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
       <c r="BF28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17556,7 +17555,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C29" s="15">
@@ -17572,21 +17571,21 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50750000000000006</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L29" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.58569998103847543</v>
       </c>
       <c r="AB29" s="15">
         <v>35</v>
       </c>
       <c r="AC29" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="AD29" s="19"/>
@@ -17594,7 +17593,7 @@
         <v>35</v>
       </c>
       <c r="AU29" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="AV29" s="19"/>
@@ -17602,31 +17601,31 @@
         <v>35</v>
       </c>
       <c r="AZ29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="BA29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="BB29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.80622577482985514</v>
       </c>
       <c r="BC29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2030786476083324</v>
       </c>
-      <c r="BD29" s="45">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="BE29" s="45">
+      <c r="BD29" s="41">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
+      <c r="BE29" s="41">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="BF29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17635,7 +17634,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C30" s="15">
@@ -17651,18 +17650,18 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50750000000000006</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.59752954385743839</v>
       </c>
       <c r="AB30" s="15">
         <v>35</v>
       </c>
       <c r="AC30" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="AD30" s="19"/>
@@ -17670,7 +17669,7 @@
         <v>35</v>
       </c>
       <c r="AU30" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="AV30" s="19"/>
@@ -17678,31 +17677,31 @@
         <v>35</v>
       </c>
       <c r="AZ30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="BA30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="BB30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3541019662496852</v>
       </c>
       <c r="BC30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.233764006943925</v>
       </c>
-      <c r="BD30" s="45">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="BE30" s="45">
+      <c r="BD30" s="41">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
+      <c r="BE30" s="41">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
       <c r="BF30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17711,7 +17710,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C31" s="15">
@@ -17727,7 +17726,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50750000000000006</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -17753,7 +17752,7 @@
         <v>35</v>
       </c>
       <c r="AC31" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="AD31" s="19">
@@ -17764,7 +17763,7 @@
         <v>35</v>
       </c>
       <c r="AU31" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="AV31" s="19">
@@ -17775,31 +17774,31 @@
         <v>35</v>
       </c>
       <c r="AZ31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11062962962962962</v>
       </c>
       <c r="BA31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="BB31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4525353003264123</v>
       </c>
       <c r="BC31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.123519621296666</v>
       </c>
-      <c r="BD31" s="45">
-        <f t="shared" si="10"/>
-        <v>26</v>
-      </c>
-      <c r="BE31" s="45">
+      <c r="BD31" s="41">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
+      <c r="BE31" s="41">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
       <c r="BF31" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17819,7 +17818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42F4F6D-E124-CD43-BEC9-582D071A5925}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="AP83" sqref="AP83"/>
     </sheetView>
   </sheetViews>
@@ -18520,8 +18519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18542,12 +18542,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -18592,10 +18592,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -18953,11 +18953,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
         <v>72.3</v>
@@ -18990,12 +18990,12 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="8">
         <v>10.7</v>
       </c>
@@ -19086,7 +19086,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5">
+      <c r="E12" s="53">
         <v>89</v>
       </c>
       <c r="F12" s="5">
@@ -19101,7 +19101,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="53">
         <v>27.8</v>
       </c>
       <c r="K12" s="5">
@@ -19110,16 +19110,16 @@
       <c r="L12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="53">
         <v>1</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="53">
         <v>1.6</v>
       </c>
       <c r="O12" s="4">
         <v>29</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="41">
         <f t="shared" ref="P12:P16" si="3">O12-J12</f>
         <v>1.1999999999999993</v>
       </c>
@@ -19245,7 +19245,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5">
+      <c r="E15" s="53">
         <v>90</v>
       </c>
       <c r="F15" s="5">
@@ -19260,7 +19260,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="53">
         <v>27.5</v>
       </c>
       <c r="K15" s="5">
@@ -19269,16 +19269,16 @@
       <c r="L15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="53">
         <v>0.5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="53">
         <v>1.6</v>
       </c>
       <c r="O15" s="4">
         <v>29</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="41">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -19345,11 +19345,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8">
         <v>70</v>
@@ -19382,12 +19382,12 @@
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="8">
         <v>35</v>
       </c>
@@ -19737,11 +19737,11 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8">
         <v>88.3</v>
@@ -19774,12 +19774,12 @@
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="8">
         <v>9</v>
       </c>
@@ -20029,7 +20029,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="5">
+      <c r="E31" s="53">
         <v>74</v>
       </c>
       <c r="F31" s="5">
@@ -20053,16 +20053,16 @@
       <c r="L31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="53">
         <v>2.4</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="53">
         <v>3.9</v>
       </c>
       <c r="O31" s="4">
         <v>50</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="41">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
@@ -20082,7 +20082,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5">
+      <c r="E32" s="53">
         <v>74</v>
       </c>
       <c r="F32" s="5">
@@ -20106,16 +20106,16 @@
       <c r="L32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="53">
         <v>3.7</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="53">
         <v>3.9</v>
       </c>
       <c r="O32" s="4">
         <v>50</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="41">
         <f t="shared" si="10"/>
         <v>1.1000000000000014</v>
       </c>
@@ -20129,11 +20129,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="7"/>
       <c r="E33" s="8">
         <v>68.3</v>
@@ -20166,12 +20166,12 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="8">
         <v>20.8</v>
       </c>
@@ -20521,11 +20521,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="7"/>
       <c r="E41" s="8">
         <v>85.5</v>
@@ -20558,12 +20558,12 @@
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="8">
         <v>8.8000000000000007</v>
       </c>
@@ -20596,11 +20596,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:D18"/>
@@ -20608,6 +20603,11 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
